--- a/data_year/zb/公共管理、社会保障及其他/社会保险基金收支及累计结余.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/社会保险基金收支及累计结余.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,1270 +528,715 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.5411</v>
+        <v>3538.1018</v>
       </c>
       <c r="C2" t="n">
-        <v>169.9984</v>
+        <v>4308.9289</v>
       </c>
       <c r="D2" t="n">
-        <v>109.8311</v>
+        <v>5047.1175</v>
       </c>
       <c r="E2" t="n">
-        <v>2115.4833</v>
+        <v>10554.9204</v>
       </c>
       <c r="F2" t="n">
-        <v>2278.5</v>
+        <v>13419.5263</v>
       </c>
       <c r="G2" t="n">
-        <v>947.1165</v>
+        <v>15365.2805</v>
       </c>
       <c r="H2" t="n">
-        <v>123.4324</v>
+        <v>423.2571175699999</v>
       </c>
       <c r="I2" t="n">
-        <v>160.4436</v>
+        <v>649.7770272099999</v>
       </c>
       <c r="J2" t="n">
-        <v>195.9333</v>
+        <v>1749.79740058</v>
       </c>
       <c r="K2" t="n">
-        <v>13.7973</v>
+        <v>192.4028</v>
       </c>
       <c r="L2" t="n">
-        <v>24.7778</v>
+        <v>284.9453</v>
       </c>
       <c r="M2" t="n">
-        <v>57.8542</v>
+        <v>561.4429</v>
       </c>
       <c r="N2" t="n">
-        <v>8.3452</v>
+        <v>109.8618</v>
       </c>
       <c r="O2" t="n">
-        <v>11.1554</v>
+        <v>159.5802</v>
       </c>
       <c r="P2" t="n">
-        <v>16.7704</v>
+        <v>261.4069</v>
       </c>
       <c r="Q2" t="n">
-        <v>2385.5993</v>
+        <v>15018.9409474507</v>
       </c>
       <c r="R2" t="n">
-        <v>2644.9</v>
+        <v>19276.1288093715</v>
       </c>
       <c r="S2" t="n">
-        <v>1327.5055</v>
+        <v>23407.5496320524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244.0989</v>
+        <v>4431.3731</v>
       </c>
       <c r="C3" t="n">
-        <v>383.6022</v>
+        <v>5539.1772</v>
       </c>
       <c r="D3" t="n">
-        <v>253.0088</v>
+        <v>6179.986</v>
       </c>
       <c r="E3" t="n">
-        <v>2321.2601</v>
+        <v>12764.9486</v>
       </c>
       <c r="F3" t="n">
-        <v>2488.9606</v>
+        <v>16894.728</v>
       </c>
       <c r="G3" t="n">
-        <v>1054.0818</v>
+        <v>19496.5955</v>
       </c>
       <c r="H3" t="n">
-        <v>156.5684</v>
+        <v>432.77</v>
       </c>
       <c r="I3" t="n">
-        <v>187.324</v>
+        <v>923.0700000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>226.2089</v>
+        <v>2240.21</v>
       </c>
       <c r="K3" t="n">
-        <v>16.4929</v>
+        <v>286.3816</v>
       </c>
       <c r="L3" t="n">
-        <v>28.2839</v>
+        <v>466.4359</v>
       </c>
       <c r="M3" t="n">
-        <v>68.8926</v>
+        <v>742.5608999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>9.587300000000001</v>
+        <v>139.1711</v>
       </c>
       <c r="O3" t="n">
-        <v>13.7285</v>
+        <v>219.8285</v>
       </c>
       <c r="P3" t="n">
-        <v>20.5757</v>
+        <v>342.5305</v>
       </c>
       <c r="Q3" t="n">
-        <v>2748.0076</v>
+        <v>18652.9024103563</v>
       </c>
       <c r="R3" t="n">
-        <v>3101.8992</v>
+        <v>25153.2983142954</v>
       </c>
       <c r="S3" t="n">
-        <v>1622.7678</v>
+        <v>30233.0831181569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.3566</v>
+        <v>5543.6240791535</v>
       </c>
       <c r="C4" t="n">
-        <v>607.783</v>
+        <v>6938.6792730501</v>
       </c>
       <c r="D4" t="n">
-        <v>450.7138</v>
+        <v>7644.5123956047</v>
       </c>
       <c r="E4" t="n">
-        <v>2842.9072</v>
+        <v>15561.7924</v>
       </c>
       <c r="F4" t="n">
-        <v>3171.4607</v>
+        <v>20000.9922</v>
       </c>
       <c r="G4" t="n">
-        <v>1608.0319</v>
+        <v>23941.3111</v>
       </c>
       <c r="H4" t="n">
-        <v>186.6</v>
+        <v>450.5755310939</v>
       </c>
       <c r="I4" t="n">
-        <v>215.6</v>
+        <v>1138.9204666247</v>
       </c>
       <c r="J4" t="n">
-        <v>253.8418</v>
+        <v>2929.0352921912</v>
       </c>
       <c r="K4" t="n">
-        <v>19.8919</v>
+        <v>406.2852</v>
       </c>
       <c r="L4" t="n">
-        <v>32.0315</v>
+        <v>526.7163</v>
       </c>
       <c r="M4" t="n">
-        <v>81.0812</v>
+        <v>861.9363</v>
       </c>
       <c r="N4" t="n">
-        <v>12.7784</v>
+        <v>219.3173</v>
       </c>
       <c r="O4" t="n">
-        <v>21.8135</v>
+        <v>304.2107</v>
       </c>
       <c r="P4" t="n">
-        <v>29.7316</v>
+        <v>427.5983</v>
       </c>
       <c r="Q4" t="n">
-        <v>3471.4995</v>
+        <v>23331.3301391826</v>
       </c>
       <c r="R4" t="n">
-        <v>4048.6627</v>
+        <v>30738.7634405706</v>
       </c>
       <c r="S4" t="n">
-        <v>2423.4003</v>
+        <v>38106.5686175402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>653.9</v>
+        <v>6801.0329</v>
       </c>
       <c r="C5" t="n">
-        <v>890</v>
+        <v>8248.2618</v>
       </c>
       <c r="D5" t="n">
-        <v>670.6</v>
+        <v>9116.4521</v>
       </c>
       <c r="E5" t="n">
-        <v>3122.1</v>
+        <v>18470.4313</v>
       </c>
       <c r="F5" t="n">
-        <v>3680</v>
+        <v>22680.3664</v>
       </c>
       <c r="G5" t="n">
-        <v>2206.5</v>
+        <v>28269.1795</v>
       </c>
       <c r="H5" t="n">
-        <v>199.8</v>
+        <v>531.6451588441</v>
       </c>
       <c r="I5" t="n">
-        <v>249.5</v>
+        <v>1288.9007453167</v>
       </c>
       <c r="J5" t="n">
-        <v>303.5</v>
+        <v>3685.8605047941</v>
       </c>
       <c r="K5" t="n">
-        <v>27.1</v>
+        <v>482.1049</v>
       </c>
       <c r="L5" t="n">
-        <v>37.6</v>
+        <v>614.7748</v>
       </c>
       <c r="M5" t="n">
-        <v>91.2</v>
+        <v>996.2162</v>
       </c>
       <c r="N5" t="n">
-        <v>13.5</v>
+        <v>282.7635</v>
       </c>
       <c r="O5" t="n">
-        <v>25.8</v>
+        <v>368.3766</v>
       </c>
       <c r="P5" t="n">
-        <v>42</v>
+        <v>514.741</v>
       </c>
       <c r="Q5" t="n">
-        <v>4016.4</v>
+        <v>27916.2565585856</v>
       </c>
       <c r="R5" t="n">
-        <v>4882.9</v>
+        <v>35252.9469194889</v>
       </c>
       <c r="S5" t="n">
-        <v>3313.8</v>
+        <v>45588.11193632959</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.2</v>
+        <v>8133.5894</v>
       </c>
       <c r="C6" t="n">
-        <v>1140.5</v>
+        <v>9687.239299999999</v>
       </c>
       <c r="D6" t="n">
-        <v>957.9</v>
+        <v>10644.7686</v>
       </c>
       <c r="E6" t="n">
-        <v>3502.1</v>
+        <v>21754.6532</v>
       </c>
       <c r="F6" t="n">
-        <v>4258.4</v>
+        <v>25309.6743</v>
       </c>
       <c r="G6" t="n">
-        <v>2975</v>
+        <v>31799.964</v>
       </c>
       <c r="H6" t="n">
-        <v>211.3</v>
+        <v>614.74194347</v>
       </c>
       <c r="I6" t="n">
-        <v>290.8</v>
+        <v>1379.7918988399</v>
       </c>
       <c r="J6" t="n">
-        <v>385.8</v>
+        <v>4451.4826597179</v>
       </c>
       <c r="K6" t="n">
-        <v>33.3</v>
+        <v>560.486</v>
       </c>
       <c r="L6" t="n">
-        <v>58.3</v>
+        <v>694.77</v>
       </c>
       <c r="M6" t="n">
-        <v>118.6</v>
+        <v>1128.7969</v>
       </c>
       <c r="N6" t="n">
-        <v>18.8</v>
+        <v>368.0523</v>
       </c>
       <c r="O6" t="n">
-        <v>32.1</v>
+        <v>446.0512</v>
       </c>
       <c r="P6" t="n">
-        <v>55.9</v>
+        <v>592.7208000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>4627.4</v>
+        <v>33002.6776478412</v>
       </c>
       <c r="R6" t="n">
-        <v>5780.3</v>
+        <v>39827.7433834006</v>
       </c>
       <c r="S6" t="n">
-        <v>4493.4</v>
+        <v>52462.2989300561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1078.7</v>
+        <v>9312.1085</v>
       </c>
       <c r="C7" t="n">
-        <v>1405.3</v>
+        <v>11192.9144</v>
       </c>
       <c r="D7" t="n">
-        <v>1278.1</v>
+        <v>12542.8061</v>
       </c>
       <c r="E7" t="n">
-        <v>4040.3</v>
+        <v>25812.7263</v>
       </c>
       <c r="F7" t="n">
-        <v>5093.3</v>
+        <v>29340.8501</v>
       </c>
       <c r="G7" t="n">
-        <v>4041</v>
+        <v>35344.7972</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9</v>
+        <v>736.394295464</v>
       </c>
       <c r="I7" t="n">
-        <v>340.3</v>
+        <v>1367.7914800752</v>
       </c>
       <c r="J7" t="n">
-        <v>519</v>
+        <v>5082.9691572599</v>
       </c>
       <c r="K7" t="n">
-        <v>47.5</v>
+        <v>598.7225</v>
       </c>
       <c r="L7" t="n">
-        <v>92.5</v>
+        <v>754.2023</v>
       </c>
       <c r="M7" t="n">
-        <v>163.5</v>
+        <v>1285.2769</v>
       </c>
       <c r="N7" t="n">
-        <v>27.4</v>
+        <v>411.4714</v>
       </c>
       <c r="O7" t="n">
-        <v>43.8</v>
+        <v>501.7462</v>
       </c>
       <c r="P7" t="n">
-        <v>72.09999999999999</v>
+        <v>684.3756</v>
       </c>
       <c r="Q7" t="n">
-        <v>5400.8</v>
+        <v>38988.127095464</v>
       </c>
       <c r="R7" t="n">
-        <v>6975.2</v>
+        <v>46012.1241800752</v>
       </c>
       <c r="S7" t="n">
-        <v>6073.7</v>
+        <v>59532.5388572599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1276.7422</v>
+        <v>10767.0928</v>
       </c>
       <c r="C8" t="n">
-        <v>1747.1038</v>
+        <v>13084.2548</v>
       </c>
       <c r="D8" t="n">
-        <v>1752.3837</v>
+        <v>14964.3004</v>
       </c>
       <c r="E8" t="n">
-        <v>4896.655510000001</v>
+        <v>31853.8152</v>
       </c>
       <c r="F8" t="n">
-        <v>6309.8</v>
+        <v>35057.5036</v>
       </c>
       <c r="G8" t="n">
-        <v>5488.88162</v>
+        <v>38580.0322</v>
       </c>
       <c r="H8" t="n">
-        <v>198.0092943121</v>
+        <v>976.117299993</v>
       </c>
       <c r="I8" t="n">
-        <v>402.4</v>
+        <v>1228.911084048</v>
       </c>
       <c r="J8" t="n">
-        <v>724.8368109858</v>
+        <v>5333.3322482221</v>
       </c>
       <c r="K8" t="n">
-        <v>68.4909</v>
+        <v>610.2902</v>
       </c>
       <c r="L8" t="n">
-        <v>121.8228</v>
+        <v>736.8505</v>
       </c>
       <c r="M8" t="n">
-        <v>192.8951</v>
+        <v>1410.8823</v>
       </c>
       <c r="N8" t="n">
-        <v>37.4866</v>
+        <v>530.6378999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>62.1289</v>
+        <v>521.9097</v>
       </c>
       <c r="P8" t="n">
-        <v>96.88760000000001</v>
+        <v>675.9498</v>
       </c>
       <c r="Q8" t="n">
-        <v>6477.3845043121</v>
+        <v>46888.431199993</v>
       </c>
       <c r="R8" t="n">
-        <v>8643.200000000001</v>
+        <v>53562.71928404801</v>
       </c>
       <c r="S8" t="n">
-        <v>8255.8848309858</v>
+        <v>66349.70164822211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1561.8</v>
+        <v>14421.8</v>
       </c>
       <c r="C9" t="n">
-        <v>2257.2</v>
+        <v>17931.3</v>
       </c>
       <c r="D9" t="n">
-        <v>2476.9</v>
+        <v>19385.6409</v>
       </c>
       <c r="E9" t="n">
-        <v>5964.9</v>
+        <v>38051.5353</v>
       </c>
       <c r="F9" t="n">
-        <v>7834.2</v>
+        <v>43309.5678</v>
       </c>
       <c r="G9" t="n">
-        <v>7391.4</v>
+        <v>43884.5819</v>
       </c>
       <c r="H9" t="n">
-        <v>217.7</v>
+        <v>893.7564897251</v>
       </c>
       <c r="I9" t="n">
-        <v>471.7</v>
+        <v>1112.62775836</v>
       </c>
       <c r="J9" t="n">
-        <v>979.1</v>
+        <v>5552.3720849191</v>
       </c>
       <c r="K9" t="n">
-        <v>87.90000000000001</v>
+        <v>662.2803</v>
       </c>
       <c r="L9" t="n">
-        <v>165.6</v>
+        <v>853.7695</v>
       </c>
       <c r="M9" t="n">
-        <v>262.6</v>
+        <v>1606.9241</v>
       </c>
       <c r="N9" t="n">
-        <v>55.6</v>
+        <v>744</v>
       </c>
       <c r="O9" t="n">
-        <v>83.59999999999999</v>
+        <v>643</v>
       </c>
       <c r="P9" t="n">
-        <v>126.6</v>
+        <v>565</v>
       </c>
       <c r="Q9" t="n">
-        <v>7887.8</v>
+        <v>57145.5887897251</v>
       </c>
       <c r="R9" t="n">
-        <v>10812.3</v>
+        <v>67154.49645835999</v>
       </c>
       <c r="S9" t="n">
-        <v>11236.6</v>
+        <v>77312.1046849191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2083.6</v>
+        <v>17823</v>
       </c>
       <c r="C10" t="n">
-        <v>3040.4</v>
+        <v>21384.39</v>
       </c>
       <c r="D10" t="n">
-        <v>3431.7</v>
+        <v>23440</v>
       </c>
       <c r="E10" t="n">
-        <v>7389.6</v>
+        <v>44644.9043</v>
       </c>
       <c r="F10" t="n">
-        <v>9740.200000000001</v>
+        <v>51167.5583</v>
       </c>
       <c r="G10" t="n">
-        <v>9931</v>
+        <v>50901.2516</v>
       </c>
       <c r="H10" t="n">
-        <v>253.4633501779</v>
+        <v>915.3</v>
       </c>
       <c r="I10" t="n">
-        <v>585.1224649309</v>
+        <v>1171.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1310.1389234573</v>
+        <v>5817</v>
       </c>
       <c r="K10" t="n">
-        <v>126.9</v>
+        <v>741.9817</v>
       </c>
       <c r="L10" t="n">
-        <v>216.7</v>
+        <v>913.0091</v>
       </c>
       <c r="M10" t="n">
-        <v>384.605</v>
+        <v>1784.9184</v>
       </c>
       <c r="N10" t="n">
-        <v>71.5</v>
+        <v>762</v>
       </c>
       <c r="O10" t="n">
-        <v>113.7</v>
+        <v>781</v>
       </c>
       <c r="P10" t="n">
-        <v>168.2</v>
+        <v>582</v>
       </c>
       <c r="Q10" t="n">
-        <v>9925.063350177901</v>
+        <v>67792.6874</v>
       </c>
       <c r="R10" t="n">
-        <v>13696.1224649309</v>
+        <v>79254.75539999999</v>
       </c>
       <c r="S10" t="n">
-        <v>15225.6439234573</v>
+        <v>89775.48579999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2797.4072</v>
+        <v>20854.2369971429</v>
       </c>
       <c r="C11" t="n">
-        <v>3671.895</v>
+        <v>24420.8846536798</v>
       </c>
       <c r="D11" t="n">
-        <v>4275.9468</v>
+        <v>27696.6823169258</v>
       </c>
       <c r="E11" t="n">
-        <v>8894.4287</v>
+        <v>49228.0243</v>
       </c>
       <c r="F11" t="n">
-        <v>11490.8428</v>
+        <v>52918.8342</v>
       </c>
       <c r="G11" t="n">
-        <v>12526.0925</v>
+        <v>54623.3422</v>
       </c>
       <c r="H11" t="n">
-        <v>366.7863449101</v>
+        <v>1333.1621</v>
       </c>
       <c r="I11" t="n">
-        <v>580.3817803239</v>
+        <v>1284.2333</v>
       </c>
       <c r="J11" t="n">
-        <v>1523.612465071</v>
+        <v>4625.3715</v>
       </c>
       <c r="K11" t="n">
-        <v>155.6763</v>
+        <v>816.8532</v>
       </c>
       <c r="L11" t="n">
-        <v>240.1166</v>
+        <v>819.4455</v>
       </c>
       <c r="M11" t="n">
-        <v>468.7791</v>
-      </c>
-      <c r="N11" t="n">
-        <v>88.256</v>
-      </c>
-      <c r="O11" t="n">
-        <v>132.4061</v>
-      </c>
-      <c r="P11" t="n">
-        <v>212.0942</v>
-      </c>
+        <v>1783.1949</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>12302.5545449101</v>
+        <v>75346.5677971429</v>
       </c>
       <c r="R11" t="n">
-        <v>16115.6422803239</v>
+        <v>83550.4271536798</v>
       </c>
       <c r="S11" t="n">
-        <v>19006.525065071</v>
+        <v>96977.8347169258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3538.1018</v>
+        <v>21032.0959251654</v>
       </c>
       <c r="C12" t="n">
-        <v>4308.9289</v>
+        <v>24846.1200902296</v>
       </c>
       <c r="D12" t="n">
-        <v>5047.1175</v>
+        <v>31499.9865966411</v>
       </c>
       <c r="E12" t="n">
-        <v>10554.9204</v>
+        <v>51301.4015</v>
       </c>
       <c r="F12" t="n">
-        <v>13419.5263</v>
+        <v>44375.7031</v>
       </c>
       <c r="G12" t="n">
-        <v>15365.2805</v>
+        <v>48316.5887</v>
       </c>
       <c r="H12" t="n">
-        <v>423.2571175699999</v>
+        <v>2103.0054</v>
       </c>
       <c r="I12" t="n">
-        <v>649.7770272099999</v>
+        <v>951.5333000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>1749.79740058</v>
+        <v>3354.1306</v>
       </c>
       <c r="K12" t="n">
-        <v>192.4028</v>
+        <v>820.2802</v>
       </c>
       <c r="L12" t="n">
-        <v>284.9453</v>
+        <v>486.2772</v>
       </c>
       <c r="M12" t="n">
-        <v>561.4429</v>
-      </c>
-      <c r="N12" t="n">
-        <v>109.8618</v>
-      </c>
-      <c r="O12" t="n">
-        <v>159.5802</v>
-      </c>
-      <c r="P12" t="n">
-        <v>261.4069</v>
-      </c>
+        <v>1449.3071</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>15018.9409474507</v>
+        <v>78611.8392251654</v>
       </c>
       <c r="R12" t="n">
-        <v>19276.1288093715</v>
+        <v>75512.52169022959</v>
       </c>
       <c r="S12" t="n">
-        <v>23407.5496320524</v>
+        <v>94378.6516966411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4431.3731</v>
+        <v>24048.1941510239</v>
       </c>
       <c r="C13" t="n">
-        <v>5539.1772</v>
+        <v>28731.9947972777</v>
       </c>
       <c r="D13" t="n">
-        <v>6179.986</v>
+        <v>36178.3408560792</v>
       </c>
       <c r="E13" t="n">
-        <v>12764.9486</v>
+        <v>56481.4635</v>
       </c>
       <c r="F13" t="n">
-        <v>16894.728</v>
+        <v>60454.7029</v>
       </c>
       <c r="G13" t="n">
-        <v>19496.5955</v>
+        <v>52573.5693</v>
       </c>
       <c r="H13" t="n">
-        <v>432.77</v>
+        <v>1500.0319</v>
       </c>
       <c r="I13" t="n">
-        <v>923.0700000000001</v>
+        <v>1459.5954</v>
       </c>
       <c r="J13" t="n">
-        <v>2240.21</v>
+        <v>3312.5261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.3816</v>
+        <v>990.17</v>
       </c>
       <c r="L13" t="n">
-        <v>466.4359</v>
+        <v>951.9136</v>
       </c>
       <c r="M13" t="n">
-        <v>742.5608999999999</v>
-      </c>
-      <c r="N13" t="n">
-        <v>139.1711</v>
-      </c>
-      <c r="O13" t="n">
-        <v>219.8285</v>
-      </c>
-      <c r="P13" t="n">
-        <v>342.5305</v>
-      </c>
+        <v>1411.2496</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>18652.9024103563</v>
+        <v>86734.9013510239</v>
       </c>
       <c r="R13" t="n">
-        <v>25153.2983142954</v>
+        <v>96936.79729727771</v>
       </c>
       <c r="S13" t="n">
-        <v>30233.0831181569</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5543.6240791535</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6938.6792730501</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7644.5123956047</v>
-      </c>
-      <c r="E14" t="n">
-        <v>15561.7924</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20000.9922</v>
-      </c>
-      <c r="G14" t="n">
-        <v>23941.3111</v>
-      </c>
-      <c r="H14" t="n">
-        <v>450.5755310939</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1138.9204666247</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2929.0352921912</v>
-      </c>
-      <c r="K14" t="n">
-        <v>406.2852</v>
-      </c>
-      <c r="L14" t="n">
-        <v>526.7163</v>
-      </c>
-      <c r="M14" t="n">
-        <v>861.9363</v>
-      </c>
-      <c r="N14" t="n">
-        <v>219.3173</v>
-      </c>
-      <c r="O14" t="n">
-        <v>304.2107</v>
-      </c>
-      <c r="P14" t="n">
-        <v>427.5983</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>23331.3301391826</v>
-      </c>
-      <c r="R14" t="n">
-        <v>30738.7634405706</v>
-      </c>
-      <c r="S14" t="n">
-        <v>38106.5686175402</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6801.0329</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8248.2618</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9116.4521</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18470.4313</v>
-      </c>
-      <c r="F15" t="n">
-        <v>22680.3664</v>
-      </c>
-      <c r="G15" t="n">
-        <v>28269.1795</v>
-      </c>
-      <c r="H15" t="n">
-        <v>531.6451588441</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1288.9007453167</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3685.8605047941</v>
-      </c>
-      <c r="K15" t="n">
-        <v>482.1049</v>
-      </c>
-      <c r="L15" t="n">
-        <v>614.7748</v>
-      </c>
-      <c r="M15" t="n">
-        <v>996.2162</v>
-      </c>
-      <c r="N15" t="n">
-        <v>282.7635</v>
-      </c>
-      <c r="O15" t="n">
-        <v>368.3766</v>
-      </c>
-      <c r="P15" t="n">
-        <v>514.741</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>27916.2565585856</v>
-      </c>
-      <c r="R15" t="n">
-        <v>35252.9469194889</v>
-      </c>
-      <c r="S15" t="n">
-        <v>45588.11193632959</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8133.5894</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9687.239299999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10644.7686</v>
-      </c>
-      <c r="E16" t="n">
-        <v>21754.6532</v>
-      </c>
-      <c r="F16" t="n">
-        <v>25309.6743</v>
-      </c>
-      <c r="G16" t="n">
-        <v>31799.964</v>
-      </c>
-      <c r="H16" t="n">
-        <v>614.74194347</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1379.7918988399</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4451.4826597179</v>
-      </c>
-      <c r="K16" t="n">
-        <v>560.486</v>
-      </c>
-      <c r="L16" t="n">
-        <v>694.77</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1128.7969</v>
-      </c>
-      <c r="N16" t="n">
-        <v>368.0523</v>
-      </c>
-      <c r="O16" t="n">
-        <v>446.0512</v>
-      </c>
-      <c r="P16" t="n">
-        <v>592.7208000000001</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>33002.6776478412</v>
-      </c>
-      <c r="R16" t="n">
-        <v>39827.7433834006</v>
-      </c>
-      <c r="S16" t="n">
-        <v>52462.2989300561</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9312.1085</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11192.9144</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12542.8061</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25812.7263</v>
-      </c>
-      <c r="F17" t="n">
-        <v>29340.8501</v>
-      </c>
-      <c r="G17" t="n">
-        <v>35344.7972</v>
-      </c>
-      <c r="H17" t="n">
-        <v>736.394295464</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1367.7914800752</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5082.9691572599</v>
-      </c>
-      <c r="K17" t="n">
-        <v>598.7225</v>
-      </c>
-      <c r="L17" t="n">
-        <v>754.2023</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1285.2769</v>
-      </c>
-      <c r="N17" t="n">
-        <v>411.4714</v>
-      </c>
-      <c r="O17" t="n">
-        <v>501.7462</v>
-      </c>
-      <c r="P17" t="n">
-        <v>684.3756</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>38988.127095464</v>
-      </c>
-      <c r="R17" t="n">
-        <v>46012.1241800752</v>
-      </c>
-      <c r="S17" t="n">
-        <v>59532.5388572599</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10767.0928</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13084.2548</v>
-      </c>
-      <c r="D18" t="n">
-        <v>14964.3004</v>
-      </c>
-      <c r="E18" t="n">
-        <v>31853.8152</v>
-      </c>
-      <c r="F18" t="n">
-        <v>35057.5036</v>
-      </c>
-      <c r="G18" t="n">
-        <v>38580.0322</v>
-      </c>
-      <c r="H18" t="n">
-        <v>976.117299993</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1228.911084048</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5333.3322482221</v>
-      </c>
-      <c r="K18" t="n">
-        <v>610.2902</v>
-      </c>
-      <c r="L18" t="n">
-        <v>736.8505</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1410.8823</v>
-      </c>
-      <c r="N18" t="n">
-        <v>530.6378999999999</v>
-      </c>
-      <c r="O18" t="n">
-        <v>521.9097</v>
-      </c>
-      <c r="P18" t="n">
-        <v>675.9498</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>46888.431199993</v>
-      </c>
-      <c r="R18" t="n">
-        <v>53562.71928404801</v>
-      </c>
-      <c r="S18" t="n">
-        <v>66349.70164822211</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>14421.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17931.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>19385.6409</v>
-      </c>
-      <c r="E19" t="n">
-        <v>38051.5353</v>
-      </c>
-      <c r="F19" t="n">
-        <v>43309.5678</v>
-      </c>
-      <c r="G19" t="n">
-        <v>43884.5819</v>
-      </c>
-      <c r="H19" t="n">
-        <v>893.7564897251</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1112.62775836</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5552.3720849191</v>
-      </c>
-      <c r="K19" t="n">
-        <v>662.2803</v>
-      </c>
-      <c r="L19" t="n">
-        <v>853.7695</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1606.9241</v>
-      </c>
-      <c r="N19" t="n">
-        <v>744</v>
-      </c>
-      <c r="O19" t="n">
-        <v>643</v>
-      </c>
-      <c r="P19" t="n">
-        <v>565</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>57145.5887897251</v>
-      </c>
-      <c r="R19" t="n">
-        <v>67154.49645835999</v>
-      </c>
-      <c r="S19" t="n">
-        <v>77312.1046849191</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>17823</v>
-      </c>
-      <c r="C20" t="n">
-        <v>21384.39</v>
-      </c>
-      <c r="D20" t="n">
-        <v>23440</v>
-      </c>
-      <c r="E20" t="n">
-        <v>44644.9043</v>
-      </c>
-      <c r="F20" t="n">
-        <v>51167.5583</v>
-      </c>
-      <c r="G20" t="n">
-        <v>50901.2516</v>
-      </c>
-      <c r="H20" t="n">
-        <v>915.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1171.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5817</v>
-      </c>
-      <c r="K20" t="n">
-        <v>741.9817</v>
-      </c>
-      <c r="L20" t="n">
-        <v>913.0091</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1784.9184</v>
-      </c>
-      <c r="N20" t="n">
-        <v>762</v>
-      </c>
-      <c r="O20" t="n">
-        <v>781</v>
-      </c>
-      <c r="P20" t="n">
-        <v>582</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>67792.6874</v>
-      </c>
-      <c r="R20" t="n">
-        <v>79254.75539999999</v>
-      </c>
-      <c r="S20" t="n">
-        <v>89775.48579999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20854.2369971429</v>
-      </c>
-      <c r="C21" t="n">
-        <v>24420.8846536798</v>
-      </c>
-      <c r="D21" t="n">
-        <v>27696.6823169258</v>
-      </c>
-      <c r="E21" t="n">
-        <v>49228.0243</v>
-      </c>
-      <c r="F21" t="n">
-        <v>52918.8342</v>
-      </c>
-      <c r="G21" t="n">
-        <v>54623.3422</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1333.1621</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1284.2333</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4625.3715</v>
-      </c>
-      <c r="K21" t="n">
-        <v>816.8532</v>
-      </c>
-      <c r="L21" t="n">
-        <v>819.4455</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1783.1949</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>75346.5677971429</v>
-      </c>
-      <c r="R21" t="n">
-        <v>83550.4271536798</v>
-      </c>
-      <c r="S21" t="n">
-        <v>96977.8347169258</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21032.0959251654</v>
-      </c>
-      <c r="C22" t="n">
-        <v>24846.1200902296</v>
-      </c>
-      <c r="D22" t="n">
-        <v>31499.9865966411</v>
-      </c>
-      <c r="E22" t="n">
-        <v>51301.4015</v>
-      </c>
-      <c r="F22" t="n">
-        <v>44375.7031</v>
-      </c>
-      <c r="G22" t="n">
-        <v>48316.5887</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2103.0054</v>
-      </c>
-      <c r="I22" t="n">
-        <v>951.5333000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3354.1306</v>
-      </c>
-      <c r="K22" t="n">
-        <v>820.2802</v>
-      </c>
-      <c r="L22" t="n">
-        <v>486.2772</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1449.3071</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>78611.8392251654</v>
-      </c>
-      <c r="R22" t="n">
-        <v>75512.52169022959</v>
-      </c>
-      <c r="S22" t="n">
-        <v>94378.6516966411</v>
+        <v>104872.109856079</v>
       </c>
     </row>
   </sheetData>
